--- a/02_試験結果集計ツール2/10_src/02_解答例_追加仕様_集計_2/in/00_起動パラメータ-単体試験項目書.xlsx
+++ b/02_試験結果集計ツール2/10_src/02_解答例_追加仕様_集計_2/in/00_起動パラメータ-単体試験項目書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31D40A-9922-4F18-8562-5F11BB6B17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C4A762-F3CF-4C5E-AC2E-3CD1C0A8B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="720" windowWidth="26010" windowHeight="13650" xr2:uid="{F7BA358A-EFBD-4B33-910D-06A67C944869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{F7BA358A-EFBD-4B33-910D-06A67C944869}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>試験番号</t>
     <rPh sb="0" eb="2">
@@ -224,27 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>佐藤</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鈴木</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">・以下コマンドを実行
 node aggregation.js -i in/sample-単体試験項目書.xlsx -o unknown/test.json
 </t>
@@ -265,6 +244,16 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤田</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -743,7 +732,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -807,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="12">
         <v>44844</v>
@@ -859,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="12">
         <v>44846</v>
@@ -875,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -884,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="12">
         <v>44847</v>
